--- a/Misc/Мультик.xlsx
+++ b/Misc/Мультик.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="57405" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="57405" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Мультфильм" sheetId="1" r:id="rId1"/>
     <sheet name="Типы препятствий" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="РПС" sheetId="4" r:id="rId3"/>
+    <sheet name="РПС по пути" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -579,6 +579,3684 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Мультфильм!$BH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Скорость</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Мультфильм!$BH$2:$BH$383</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="382"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.278</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9860000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.7760000000000016</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4060000000000024</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.6120000000000019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.735200000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.329200000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.941200000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.522600000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.074930000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.650930000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.262930000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.856930000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.450930000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.044930000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.602930000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.16093</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.736930000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.240930000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.744930000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.223730000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.678590000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.110707000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.542707000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.974707000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.424707000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.892707000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.360707000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.810707000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23.278707000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.710706999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.178706999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.610706999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.006706999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.366706999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.744706999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.104706999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.464706999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.806706999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.130706999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.454706999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.778707000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.102707000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.426707000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.732707000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.074707000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.398707000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.740707000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.064707000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.388707000000007</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.712707000000009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.054707000000008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31.378707000000009</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31.720707000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32.080707000000011</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32.44070700000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32.818707000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.214707000000011</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33.592707000000011</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33.970707000000012</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34.31270700000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>34.636707000000008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34.944507000000009</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35.236917000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35.514706500000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35.778606525000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>36.029311548750002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36.267481321312502</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36.493742605246879</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36.708690824984537</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36.912891633735313</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.106882402048548</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37.291173631946123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37.466250300348818</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>37.632573135331377</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>37.790579828564809</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37.940686187136571</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>38.083287227779742</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>38.218758216390754</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>38.347455655571217</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>38.469718222792658</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>38.585867661653026</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>38.696209628570372</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>38.801034497141856</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>38.900618122284762</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>38.995222566170526</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>39.067096787861999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>39.031096787861998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>38.996896787861999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>38.964406787861996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>38.910406787861994</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>38.874406787861993</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>38.892406787861994</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>38.928406787861995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>38.982406787861997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>39.033706787861995</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>39.082441787861995</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>39.128740037861995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>39.200740037861998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>39.269140037861995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>39.359140037861998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>39.395140037861999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>39.429340037861998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>39.447340037861998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>39.464440037861998</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>39.482440037861998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>39.499540037861998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>39.515785037861995</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>39.531217787861998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40.107217787861998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40.773217787861995</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41.475217787861993</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42.213217787861993</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42.951217787861992</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43.707217787861993</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44.445217787861992</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45.183217787861992</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45.921217787861991</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>46.64121778786199</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>47.39721778786199</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>48.13521778786199</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>48.855217787861989</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>49.593217787861988</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>50.457217787861985</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>51.393217787861985</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52.311217787861985</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>53.175217787861982</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>54.05721778786198</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54.957217787861978</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>55.839217787861976</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56.677117787861974</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>57.473122787861975</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>58.229327537861977</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>58.947722050361975</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>59.630196837236973</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>60.29619683723697</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>60.980196837236967</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>61.646196837236964</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>62.276196837236967</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>62.92419683723697</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>63.536196837236972</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>64.166196837236967</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>64.778196837236962</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>65.359596837236964</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>65.911926837236962</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>66.436640337236966</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>66.935118162236961</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>67.385118162236964</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>67.853118162236967</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>68.30311816223697</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>68.753118162236973</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>69.185118162236975</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>69.595518162236971</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>69.985398162236976</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>70.355784162236972</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70.707650862236974</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>71.049650862236973</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>71.391650862236972</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>71.769650862236972</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>72.129650862236971</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>72.507650862236972</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>72.84965086223697</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>73.20965086223697</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>73.58765086223697</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>73.947650862236969</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>74.307650862236969</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>74.649650862236967</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>75.009650862236967</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>75.351650862236966</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>75.676550862236965</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>75.985205862236967</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>76.278428112236966</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>76.556989249736972</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>76.821622330361976</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>77.07302375695572</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>77.311855112219789</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>77.491855112219795</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>77.635855112219801</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>77.743855112219805</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>77.8464551122198</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>77.943925112219802</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>78.036521612219801</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>78.124488287219805</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>78.208056628469805</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>78.2874465526573</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>78.362866980635431</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>78.434516387214643</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>78.502583323464904</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>78.567246912902647</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>78.628677322868498</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>78.687036212336068</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>78.742477157330256</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>78.795146055074738</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>78.845181507931997</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>78.892715188146383</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>78.937872184350056</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>78.80077133074353</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>78.530771330743534</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>78.206771330743535</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>77.864771330743537</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>77.540771330743539</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>77.19877133074354</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>76.766771330743538</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>76.244771330743532</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>75.686771330743525</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>74.966771330743526</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>74.228771330743527</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>73.472771330743527</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>72.752771330743528</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>72.05077133074353</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>71.330771330743531</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>70.592771330743531</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>69.744971330743525</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>68.88097133074352</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>68.034971330743517</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>67.188971330743513</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>66.342971330743509</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>65.478971330743505</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>64.5969713307435</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>63.714971330743502</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>62.832971330743504</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>61.950971330743506</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>61.113071330743509</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>60.265271330743509</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>59.401271330743512</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>58.555271330743516</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>57.709271330743519</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>56.863271330743522</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>55.999271330743525</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>55.117271330743527</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>54.235271330743529</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>53.353271330743532</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>52.471271330743534</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>51.633371330743536</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>50.785571330743537</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>49.921571330743539</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>49.075571330743543</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>48.229571330743546</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>47.38357133074355</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>46.519571330743553</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>45.637571330743555</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44.755571330743557</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>43.873571330743559</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>42.991571330743561</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>42.153671330743563</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>41.305871330743564</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>40.441871330743567</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>39.59587133074357</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>38.749871330743574</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>37.903871330743577</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>37.03987133074358</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>36.157871330743582</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>35.275871330743584</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>34.393871330743586</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>33.511871330743588</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>32.673971330743591</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>31.826171330743591</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>30.96217133074359</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>30.11617133074359</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>29.27017133074359</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>28.42417133074359</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>27.560171330743589</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>26.678171330743588</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>25.796171330743586</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>24.914171330743585</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>24.032171330743584</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>23.194271330743582</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>22.346471330743583</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>21.482471330743582</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>20.726471330743582</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>20.042471330743581</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>19.376471330743581</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>18.728471330743581</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18.06247133074358</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>17.378471330743579</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>16.766471330743578</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>16.208471330743578</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>15.668471330743579</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>15.164471330743579</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>14.642471330743579</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>14.066471330743578</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>13.508471330743578</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>13.058471330743579</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>12.680471330743579</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>12.302471330743579</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>11.924471330743579</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>11.564471330743579</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>11.222471330743579</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>10.897571330743579</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>10.555571330743579</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>10.465571330743579</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>10.447571330743578</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>10.430471330743579</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>10.180226330743579</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>9.8562263307435796</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>9.4782263307435795</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>9.11822633074358</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8.7402263307435799</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8.3802263307435805</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>8.020226330743581</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>7.6602263307435807</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>7.3002263307435804</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>6.9402263307435801</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>6.5802263307435798</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>6.2022263307435797</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5.8431263307435799</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>5.4651263307435798</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>5.10602633074358</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>4.76488133074358</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>4.4407935807435805</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>4.0627935807435804</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3.7027935807435806</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.3247935807435804</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2.9467935807435803</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2.5876935807435801</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2.2465485807435801</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.88654858074358</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.5265485807435799</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.1665485807435798</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.82454858074357973</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.68054858074357971</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.64454858074357968</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.61034858074357967</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.55634858074357962</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.50504858074357961</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.46904858074357958</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.43484858074357957</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.43484858074357957</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.43484858074357957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="78741888"/>
+        <c:axId val="78743424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78741888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78743424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78743424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78741888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Мультфильм!$BH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Скорость</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Мультфильм!$BG$2:$BG$383</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="382"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2974999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7274999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2224999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0925000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8725000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7475000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.8150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.9824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.2325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.567500000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.982500000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.473500000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.047000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.705500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.444749999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21.2607125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23.156675</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.1376375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.2011</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.3470625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.575524999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.881487499999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36.264949999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38.728412499999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41.261874999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.865337499999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46.535299999999992</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.26843749999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>52.061591249999992</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.914744999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57.827898749999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>60.803552499999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>63.844206249999992</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>66.949859999999987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.118013749999989</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73.351167499999988</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.64432124999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>80.00247499999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83.420628749999992</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>86.893782499999986</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>90.416936249999992</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>93.992589999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>97.618243749999991</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>101.29389749999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>105.01705124999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>108.78520499999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>112.59835874999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>116.45651249999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>120.35966624999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>124.30781999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>128.29847374999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>132.33662749999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>136.41978124999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>140.55043499999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>144.72608874999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>148.94674249999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>153.21239624999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>157.52554999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>161.88370375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>166.28935749999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>170.74501125</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>175.250665</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>179.80881875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>184.42197250000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>189.08762625</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>193.80578</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>198.57143375000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>203.38208750000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>208.23549125000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>213.12950750000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>218.06210562500002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>223.03135653125003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>228.03542757968754</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>233.07257776320316</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>238.14115312504299</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>243.23958240629085</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>248.36637291097631</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>253.52010657792749</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>258.69943624903112</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>263.90308212407956</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>269.1298283928756</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>274.37852003573181</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>279.6480597839452</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>284.93740523224795</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>290.24556609563558</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>295.57160160335383</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>300.91461802318616</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>306.27376630952688</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>311.64823986905054</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>317.037272438098</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>322.44013606619313</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>327.8561392003835</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>333.28462486536432</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>338.71311053034515</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>344.14159619532597</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>349.5700818603068</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>354.99606752528763</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>360.41705319026846</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>365.83328885524929</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>371.24501202023015</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>376.64923518521096</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>382.04845835019177</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>387.45018151517257</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>392.85690468015343</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>398.27112784513429</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>403.69247601011512</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>409.12059292509593</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>414.55514015257677</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>419.99968738005759</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>425.45373460753842</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>430.92028183501924</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>436.39182906250005</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>441.86812628998086</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>447.34692351746168</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>452.82809574494252</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>458.31176797242335</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>463.79781519990416</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>469.28611867738499</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>474.77656559236584</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>480.34701250734668</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>486.00995942232748</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>491.77040633730832</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>497.63335325228917</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>503.59880016726999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>509.66924708225082</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>515.84219399723167</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>522.11764091221255</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>528.49558782719339</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>534.97353474217425</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>541.55648165715513</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>548.24192857213598</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>555.02737548711684</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>561.91532240209767</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>568.92326931707851</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>576.06121623205934</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>583.32666314704022</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>590.712110062021</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>598.22005697700183</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>605.85300389198267</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>613.60845080696345</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>621.48027272194429</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>629.46265088692508</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>637.55005748940596</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>645.73724110751175</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>654.01921289046129</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>662.39368467341092</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>670.86315645636046</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>679.42512823931008</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>688.07460002225969</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>696.81407180520932</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>705.63854358815888</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>714.55051537110842</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>723.54748715405799</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>732.62520893700753</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>741.77964321995705</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>751.0069543779066</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>760.3034985671062</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>769.66254275630581</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>779.08658694550536</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>788.57313113470491</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>798.12217532390446</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>807.73121951310407</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>817.39726370230369</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>827.11745789150325</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>836.88909458070282</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>846.70960164490236</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>856.57760870910192</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>866.4931157733015</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>876.46112283750108</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>886.47912990170062</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>896.54963696590016</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>906.66764403009972</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>916.83565109429935</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>927.05615815849887</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>937.32666522269847</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>947.64717228689801</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>958.01517935109757</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>968.4331864152972</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>978.89869347949673</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>989.40932554369635</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>999.96282635789589</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1010.5570524845955</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1021.1899676581701</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1031.8596374262759</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1042.5642240591865</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1053.3019817136615</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1064.0647393681365</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1074.8474970226116</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1085.6452546770865</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1096.4572623315614</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1107.2828074860363</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1118.1212132655112</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1128.9718366387362</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1139.8340667260238</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1150.7073231916706</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1161.5910547167589</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1172.4847375483164</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1183.3878741210199</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1194.2999917478119</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1205.220641375988</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1216.1493964054791</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1227.0858515662194</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1238.0296218516464</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1248.9803415055258</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1259.937663059435</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1270.9012564183724</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1281.8708079920868</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1292.8403595658012</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1303.8099111395156</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1314.77946271323</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1325.7240142869443</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1336.6310658606587</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1347.4931174343731</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1358.3076690080875</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1369.0772205818018</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1379.7992721555163</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1390.4613237292306</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1401.0508753029449</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1411.5629268766593</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1421.9749784503736</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1432.2845300240879</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1442.4890815978022</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1452.5936331715166</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1462.6006847452309</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1472.5077363189453</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1482.3122878926597</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1491.999089466374</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1501.5658910400884</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1511.0151926138028</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1520.3469941875171</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1529.5612957612316</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1538.6555973349459</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1547.6273989086603</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1556.4767004823748</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1565.2035020560891</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1573.8078036298034</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1582.2957302035177</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1590.6659067772321</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1598.9160833509463</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1607.0487599246608</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1615.0639364983751</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1622.9616130720894</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1630.7392896458039</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1638.3944662195183</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1645.9271427932326</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1653.337319366947</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1660.6249959406614</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1667.7962975143757</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1674.8498490880902</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1681.7834006618045</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1688.5994522355188</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1695.2980038092333</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1701.8790553829476</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1708.3401069566621</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1714.6786585303764</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1720.8947101040908</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1726.9882616778052</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1732.9593132515197</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1738.8139898252341</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1744.5509163989484</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1750.1678429726628</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1755.6672695463772</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1761.0491961200914</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1766.3136226938059</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1771.4580492675202</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1776.4799758412346</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1781.379402414949</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1786.1563289886635</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1790.8107555623778</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1795.3488071360923</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1799.7691087098067</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1804.0694102835212</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1808.2522118572356</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1812.3175134309499</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1816.2653150046642</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1820.0931165783786</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1823.7984181520931</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1827.3812197258073</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1830.8415212995217</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1834.1793228732361</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1837.4007494469504</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1840.5044260206648</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1843.4881025943791</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1846.3667791680934</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1849.1504557418077</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1851.841632315522</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1854.4428088892364</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1856.9514854629508</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1859.3651620366652</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1861.6938386103795</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1863.945015184094</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1866.1211917578084</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1868.2273683315229</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1870.2610449052372</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1872.2147214789516</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1874.090898052666</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1875.9045746263805</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1877.665751200095</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1879.3744277738094</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1881.0306043475239</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1882.6367809212384</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1884.1954574949527</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1885.7090090686672</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1887.1750606423816</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1888.6286122160959</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1890.0796637898104</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1891.5283403635249</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1892.9747606872393</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1894.4211810109537</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1895.8676013346681</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1897.3140216583824</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1898.7279419820968</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1900.0968623058111</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1901.4132826295254</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1902.6797029532397</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1903.893623276954</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1905.0575436006684</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1906.1714639243828</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1907.2353842480973</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1908.2493045718115</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1909.2132248955259</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1910.1271452192402</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1910.9885655429546</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1911.800110866669</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1912.5591561903834</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1913.2683265140979</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1913.9301155878122</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1914.5468924740267</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1915.1111693602411</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1915.6254462464556</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1916.08722313267</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1916.4965000188845</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1916.8559019050988</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1917.1679225413131</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1917.4299431775275</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1917.641963813742</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1917.8039844499565</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1917.9185050861709</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1918.0130257223852</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1918.1025463585995</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1918.187316994814</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1918.2645876310282</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1918.3347332672427</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1918.399878903457</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1918.4602745396714</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1918.5206701758859</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1918.5810658121004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Мультфильм!$BH$2:$BH$383</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="382"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.278</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9860000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.7760000000000016</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4060000000000024</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.6120000000000019</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.735200000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.329200000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.941200000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.522600000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.074930000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.650930000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.262930000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.856930000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.450930000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.044930000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.602930000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.16093</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.736930000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.240930000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.744930000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.223730000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.678590000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.110707000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.542707000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.974707000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.424707000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.892707000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.360707000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.810707000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23.278707000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.710706999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.178706999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.610706999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.006706999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.366706999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.744706999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.104706999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.464706999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.806706999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.130706999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.454706999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.778707000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.102707000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.426707000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.732707000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.074707000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.398707000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.740707000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.064707000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.388707000000007</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.712707000000009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.054707000000008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31.378707000000009</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31.720707000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32.080707000000011</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32.44070700000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32.818707000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.214707000000011</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33.592707000000011</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33.970707000000012</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34.31270700000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>34.636707000000008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34.944507000000009</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35.236917000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35.514706500000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35.778606525000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>36.029311548750002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36.267481321312502</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36.493742605246879</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36.708690824984537</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36.912891633735313</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.106882402048548</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37.291173631946123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37.466250300348818</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>37.632573135331377</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>37.790579828564809</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37.940686187136571</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>38.083287227779742</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>38.218758216390754</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>38.347455655571217</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>38.469718222792658</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>38.585867661653026</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>38.696209628570372</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>38.801034497141856</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>38.900618122284762</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>38.995222566170526</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>39.085096787862</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>39.067096787861999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>39.031096787861998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>38.996896787861999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>38.964406787861996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>38.910406787861994</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>38.874406787861993</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>38.892406787861994</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>38.928406787861995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>38.982406787861997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>39.033706787861995</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>39.082441787861995</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>39.128740037861995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>39.200740037861998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>39.269140037861995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>39.359140037861998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>39.395140037861999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>39.429340037861998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>39.447340037861998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>39.464440037861998</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>39.482440037861998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>39.499540037861998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>39.515785037861995</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>39.531217787861998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40.107217787861998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40.773217787861995</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41.475217787861993</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42.213217787861993</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42.951217787861992</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43.707217787861993</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44.445217787861992</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45.183217787861992</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45.921217787861991</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>46.64121778786199</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>47.39721778786199</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>48.13521778786199</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>48.855217787861989</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>49.593217787861988</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>50.457217787861985</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>51.393217787861985</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52.311217787861985</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>53.175217787861982</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>54.05721778786198</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54.957217787861978</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>55.839217787861976</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56.677117787861974</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>57.473122787861975</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>58.229327537861977</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>58.947722050361975</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>59.630196837236973</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>60.29619683723697</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>60.980196837236967</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>61.646196837236964</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>62.276196837236967</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>62.92419683723697</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>63.536196837236972</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>64.166196837236967</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>64.778196837236962</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>65.359596837236964</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>65.911926837236962</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>66.436640337236966</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>66.935118162236961</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>67.385118162236964</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>67.853118162236967</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>68.30311816223697</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>68.753118162236973</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>69.185118162236975</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>69.595518162236971</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>69.985398162236976</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>70.355784162236972</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70.707650862236974</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>71.049650862236973</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>71.391650862236972</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>71.769650862236972</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>72.129650862236971</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>72.507650862236972</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>72.84965086223697</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>73.20965086223697</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>73.58765086223697</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>73.947650862236969</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>74.307650862236969</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>74.649650862236967</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>75.009650862236967</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>75.351650862236966</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>75.676550862236965</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>75.985205862236967</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>76.278428112236966</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>76.556989249736972</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>76.821622330361976</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>77.07302375695572</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>77.311855112219789</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>77.491855112219795</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>77.635855112219801</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>77.743855112219805</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>77.8464551122198</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>77.943925112219802</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>78.036521612219801</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>78.124488287219805</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>78.208056628469805</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>78.2874465526573</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>78.362866980635431</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>78.434516387214643</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>78.502583323464904</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>78.567246912902647</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>78.628677322868498</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>78.687036212336068</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>78.742477157330256</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>78.795146055074738</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>78.845181507931997</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>78.892715188146383</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>78.937872184350056</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>78.980771330743536</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>78.80077133074353</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>78.530771330743534</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>78.206771330743535</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>77.864771330743537</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>77.540771330743539</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>77.19877133074354</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>76.766771330743538</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>76.244771330743532</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>75.686771330743525</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>74.966771330743526</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>74.228771330743527</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>73.472771330743527</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>72.752771330743528</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>72.05077133074353</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>71.330771330743531</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>70.592771330743531</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>69.744971330743525</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>68.88097133074352</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>68.034971330743517</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>67.188971330743513</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>66.342971330743509</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>65.478971330743505</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>64.5969713307435</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>63.714971330743502</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>62.832971330743504</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>61.950971330743506</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>61.113071330743509</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>60.265271330743509</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>59.401271330743512</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>58.555271330743516</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>57.709271330743519</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>56.863271330743522</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>55.999271330743525</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>55.117271330743527</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>54.235271330743529</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>53.353271330743532</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>52.471271330743534</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>51.633371330743536</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>50.785571330743537</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>49.921571330743539</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>49.075571330743543</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>48.229571330743546</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>47.38357133074355</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>46.519571330743553</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>45.637571330743555</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44.755571330743557</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>43.873571330743559</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>42.991571330743561</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>42.153671330743563</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>41.305871330743564</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>40.441871330743567</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>39.59587133074357</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>38.749871330743574</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>37.903871330743577</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>37.03987133074358</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>36.157871330743582</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>35.275871330743584</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>34.393871330743586</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>33.511871330743588</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>32.673971330743591</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>31.826171330743591</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>30.96217133074359</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>30.11617133074359</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>29.27017133074359</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>28.42417133074359</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>27.560171330743589</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>26.678171330743588</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>25.796171330743586</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>24.914171330743585</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>24.032171330743584</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>23.194271330743582</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>22.346471330743583</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>21.482471330743582</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>20.726471330743582</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>20.042471330743581</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>19.376471330743581</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>18.728471330743581</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18.06247133074358</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>17.378471330743579</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>16.766471330743578</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>16.208471330743578</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>15.668471330743579</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>15.164471330743579</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>14.642471330743579</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>14.066471330743578</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>13.508471330743578</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>13.058471330743579</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>12.680471330743579</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>12.302471330743579</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>11.924471330743579</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>11.564471330743579</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>11.222471330743579</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>10.897571330743579</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>10.555571330743579</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>10.465571330743579</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>10.447571330743578</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>10.430471330743579</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>10.414226330743579</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>10.180226330743579</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>9.8562263307435796</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>9.4782263307435795</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>9.11822633074358</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8.7402263307435799</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8.3802263307435805</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>8.020226330743581</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>7.6602263307435807</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>7.3002263307435804</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>6.9402263307435801</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>6.5802263307435798</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>6.2022263307435797</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5.8431263307435799</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>5.4651263307435798</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>5.10602633074358</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>4.76488133074358</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>4.4407935807435805</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>4.0627935807435804</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3.7027935807435806</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.3247935807435804</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2.9467935807435803</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2.5876935807435801</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2.2465485807435801</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.88654858074358</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.5265485807435799</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.1665485807435798</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.82454858074357973</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.68054858074357971</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.64454858074357968</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.61034858074357967</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.55634858074357962</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.50504858074357961</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.46904858074357958</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.43484858074357957</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.43484858074357957</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.43484858074357957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="56246656"/>
+        <c:axId val="56248192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="56246656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56248192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="56248192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56246656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9288780" cy="6103620"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9294316" cy="6101953"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -866,9 +4544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CO383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AU1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK12" sqref="AK12"/>
+      <selection pane="bottomLeft" activeCell="BH2" activeCellId="1" sqref="BG1:BG1048576 BH1:BH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1459,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H21" si="7">$CO$3</f>
+        <f t="shared" ref="H3:H6" si="7">$CO$3</f>
         <v>40</v>
       </c>
       <c r="I3" s="3">
@@ -1472,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L21" si="8">$CO$5</f>
+        <f t="shared" ref="L3:L6" si="8">$CO$5</f>
         <v>0.32</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1531,7 +5209,7 @@
         <v>0.6180613425925926</v>
       </c>
       <c r="AC3" s="23">
-        <f t="shared" ref="AC3:AC21" ca="1" si="16">$CO$7</f>
+        <f t="shared" ref="AC3:AC6" ca="1" si="16">$CO$7</f>
         <v>41919</v>
       </c>
       <c r="AD3" s="3">
@@ -2640,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="13">
-        <f t="shared" ref="BI7:BI70" si="52">BI6*0.95</f>
+        <f t="shared" ref="BI7:BI64" si="52">BI6*0.95</f>
         <v>0</v>
       </c>
       <c r="BJ7" s="12">
@@ -2811,7 +6489,7 @@
         <v>16561220</v>
       </c>
       <c r="BZ8" s="25">
-        <f t="shared" ref="BZ7:BZ70" si="70">BY8-BT8</f>
+        <f t="shared" ref="BZ8:BZ70" si="70">BY8-BT8</f>
         <v>1120</v>
       </c>
       <c r="CA8" s="11">
@@ -2922,7 +6600,7 @@
         <v>15950</v>
       </c>
       <c r="CB9" s="12">
-        <f t="shared" ref="CB7:CB70" si="71">CA9-BT9</f>
+        <f t="shared" ref="CB9:CB70" si="71">CA9-BT9</f>
         <v>-16544150</v>
       </c>
       <c r="CC9" s="11">
@@ -12091,7 +15769,7 @@
         <v>34.636707000000008</v>
       </c>
       <c r="BI104" s="13">
-        <f t="shared" ref="BI71:BI134" si="94">BI103*0.95</f>
+        <f t="shared" ref="BI104:BI134" si="94">BI103*0.95</f>
         <v>0.17099999999999999</v>
       </c>
       <c r="BJ104" s="12">
@@ -21354,7 +25032,7 @@
         <v>69.595518162236971</v>
       </c>
       <c r="BI199" s="13">
-        <f t="shared" ref="BI199:BI262" si="121">BI198*0.95</f>
+        <f t="shared" ref="BI199:BI245" si="121">BI198*0.95</f>
         <v>0.21659999999999996</v>
       </c>
       <c r="BJ199" s="12">
@@ -28465,7 +32143,7 @@
         <v>61.950971330743506</v>
       </c>
       <c r="BI272" s="13">
-        <f t="shared" ref="BI263:BI327" si="170">BI271*0.95</f>
+        <f t="shared" ref="BI272:BI316" si="170">BI271*0.95</f>
         <v>-0.46549999999999997</v>
       </c>
       <c r="BJ272" s="12">
@@ -33118,11 +36796,11 @@
         <v>159</v>
       </c>
       <c r="BG320" s="26">
-        <f t="shared" ref="BG320:BG365" si="171">BG319+(BH320/3.6) * $CO$2</f>
+        <f t="shared" ref="BG320:BG362" si="171">BG319+(BH320/3.6) * $CO$2</f>
         <v>1846.3667791680934</v>
       </c>
       <c r="BH320" s="12">
-        <f t="shared" ref="BH320:BH365" si="172">BH319+(BI319*$CO$2)*3.6</f>
+        <f t="shared" ref="BH320:BH362" si="172">BH319+(BI319*$CO$2)*3.6</f>
         <v>20.726471330743582</v>
       </c>
       <c r="BI320" s="13">
@@ -33133,7 +36811,7 @@
         <v>60</v>
       </c>
       <c r="BK320" s="12">
-        <f t="shared" ref="BK320:BK365" si="173">BK319 + SIGN(BJ320-BK319)*(MIN($CO$4, ABS(BJ320-BK319)))</f>
+        <f t="shared" ref="BK320:BK362" si="173">BK319 + SIGN(BJ320-BK319)*(MIN($CO$4, ABS(BJ320-BK319)))</f>
         <v>60</v>
       </c>
       <c r="BL320" s="11">
@@ -33165,11 +36843,11 @@
         <v>0</v>
       </c>
       <c r="BS320" s="11">
-        <f t="shared" ref="BS320:BS365" si="174">SIGN(BH320)</f>
+        <f t="shared" ref="BS320:BS362" si="174">SIGN(BH320)</f>
         <v>1</v>
       </c>
       <c r="BT320" s="12">
-        <f t="shared" ref="BT320:BT365" si="175">$CO$9+BG320</f>
+        <f t="shared" ref="BT320:BT362" si="175">$CO$9+BG320</f>
         <v>16561946.366779167</v>
       </c>
       <c r="BU320" s="24" t="str">
@@ -33193,7 +36871,7 @@
         <v>16561220</v>
       </c>
       <c r="BZ320" s="25">
-        <f t="shared" ref="BZ320:BZ365" si="176">BY320-BT320</f>
+        <f t="shared" ref="BZ320:BZ362" si="176">BY320-BT320</f>
         <v>-726.3667791672051</v>
       </c>
       <c r="CA320" s="11">
@@ -33201,7 +36879,7 @@
         <v>15950</v>
       </c>
       <c r="CB320" s="12">
-        <f t="shared" ref="CB320:CB365" si="177">CA320-BT320</f>
+        <f t="shared" ref="CB320:CB362" si="177">CA320-BT320</f>
         <v>-16545996.366779167</v>
       </c>
       <c r="CC320" s="11">
@@ -35261,7 +38939,7 @@
         <v>10.447571330743578</v>
       </c>
       <c r="BI342" s="13">
-        <f t="shared" ref="BI327:BI383" si="189">BI341*0.95</f>
+        <f t="shared" ref="BI342:BI383" si="189">BI341*0.95</f>
         <v>-9.4999999999999998E-3</v>
       </c>
       <c r="BJ342" s="12">
@@ -36926,7 +40604,7 @@
         <v>60</v>
       </c>
       <c r="BL359" s="11">
-        <f t="shared" ref="BL359:BN365" si="194">BL358</f>
+        <f t="shared" ref="BL359:BN362" si="194">BL358</f>
         <v>2</v>
       </c>
       <c r="BM359" s="11">
@@ -36946,7 +40624,7 @@
         <v>1</v>
       </c>
       <c r="BQ359" s="11">
-        <f t="shared" ref="BQ359:BR365" si="195">BQ358</f>
+        <f t="shared" ref="BQ359:BR362" si="195">BQ358</f>
         <v>0</v>
       </c>
       <c r="BR359" s="11">
@@ -36962,7 +40640,7 @@
         <v>16562010.988565544</v>
       </c>
       <c r="BU359" s="24" t="str">
-        <f t="shared" ref="BU359:BV365" si="196">BU358</f>
+        <f t="shared" ref="BU359:BV362" si="196">BU358</f>
         <v>Мулянка</v>
       </c>
       <c r="BV359" s="11">
@@ -36974,7 +40652,7 @@
         <v>0</v>
       </c>
       <c r="BX359" s="24" t="str">
-        <f t="shared" ref="BX359:BY365" si="197">BX358</f>
+        <f t="shared" ref="BX359:BY362" si="197">BX358</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BY359" s="11">
@@ -39452,16 +43130,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>